--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pisa\Lectures\Practicals\SPM\GS-directed-acyclic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pisa\Lectures\Practicals\SPM\GS-directed-acyclic2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Stats" sheetId="4" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t># of nodes</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Best Time - Nodes = 100 - Edges = 1183</t>
+  </si>
+  <si>
+    <t># of Nodes = 1000</t>
+  </si>
+  <si>
+    <t># of Nodes = 500</t>
+  </si>
+  <si>
+    <t># of nodes = 1000</t>
+  </si>
+  <si>
+    <t># of nodes = 500</t>
   </si>
 </sst>
 </file>
@@ -140,17 +152,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Stats!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -284,7 +296,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Stats!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -308,24 +320,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:f>Stats!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>258184</c:v>
+                  <c:v>394974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258184</c:v>
+                  <c:v>394974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258184</c:v>
+                  <c:v>394974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258184</c:v>
+                  <c:v>394974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258184</c:v>
+                  <c:v>394974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,7 +349,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Stats!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,7 +384,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Stats!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -396,24 +408,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$G$6</c:f>
+              <c:f>Stats!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>218162</c:v>
+                  <c:v>283620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234233</c:v>
+                  <c:v>245284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240692</c:v>
+                  <c:v>258609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231077</c:v>
+                  <c:v>262150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237326</c:v>
+                  <c:v>271628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,7 +437,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Stats!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -460,7 +472,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Stats!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -484,24 +496,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$G$7</c:f>
+              <c:f>Stats!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100630</c:v>
+                  <c:v>129264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104894</c:v>
+                  <c:v>133197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113212</c:v>
+                  <c:v>142640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134687</c:v>
+                  <c:v>148580</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133664</c:v>
+                  <c:v>187029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,11 +530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285991952"/>
-        <c:axId val="285996848"/>
+        <c:axId val="298964352"/>
+        <c:axId val="298954560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285991952"/>
+        <c:axId val="298964352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285996848"/>
+        <c:crossAx val="298954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -573,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285996848"/>
+        <c:axId val="298954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285991952"/>
+        <c:crossAx val="298964352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -739,14 +751,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>1000</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Nodes - Active Wait</a:t>
+              <a:rPr lang="en-US" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Nodes - With Active Wait</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -791,7 +809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Stats!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -810,23 +828,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$G$18</c:f>
+              <c:f>Stats!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -850,24 +856,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$G$19</c:f>
+              <c:f>Stats!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6260091</c:v>
+                  <c:v>6270696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6260091</c:v>
+                  <c:v>6270696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6260091</c:v>
+                  <c:v>6270696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6260091</c:v>
+                  <c:v>6270696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6260091</c:v>
+                  <c:v>6270696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +885,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Stats!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -898,23 +904,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$G$18</c:f>
+              <c:f>Stats!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -938,7 +932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:f>Stats!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -967,7 +961,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>Stats!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,23 +980,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$G$18</c:f>
+              <c:f>Stats!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1026,24 +1008,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$G$21</c:f>
+              <c:f>Stats!$C$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1805296</c:v>
+                  <c:v>1599067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1387633</c:v>
+                  <c:v>807810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>909691</c:v>
+                  <c:v>757266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>811272</c:v>
+                  <c:v>723283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>722234</c:v>
+                  <c:v>811894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,13 +1040,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285990320"/>
-        <c:axId val="285990864"/>
+        <c:axId val="298967616"/>
+        <c:axId val="298954016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285990320"/>
+        <c:axId val="298967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285990864"/>
+        <c:crossAx val="298954016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285990864"/>
+        <c:axId val="298954016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1147,2463 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285990320"/>
+        <c:crossAx val="298967616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>500 Nodes - With Active Wait</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$62:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3081858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$63:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>596789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>381493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$64:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1452768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>746563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298962720"/>
+        <c:axId val="298960000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298962720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298960000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298960000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298962720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>500 Nodes - Without Active Wait</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298956736"/>
+        <c:axId val="298969248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298956736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298969248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298969248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298956736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1000 Nodes - Combined</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$81:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>394974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$82:$G$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>283620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>258609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$83:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$84:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6270696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6270696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6270696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6270696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6270696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$85:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1132782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1304582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1078541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>784029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$86:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1599067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>807810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>757266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>723283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>811894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298966528"/>
+        <c:axId val="298967072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298966528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298967072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298967072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298966528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>500 Nodes - Combined</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$100:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$101:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$102:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$103:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3081858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3081858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PAR-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$104:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>596789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>381493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF-Active-Wait</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$105:$G$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1452768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>746563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298955648"/>
+        <c:axId val="298956192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298955648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298956192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298956192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298955648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,6 +3764,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1831,7 +4428,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1939,6 +4536,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1949,6 +4551,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1980,6 +4587,2073 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2337,16 +7011,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2367,20 +7041,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2390,6 +7064,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2661,9 +7455,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>394974</v>
+      </c>
+      <c r="D5">
+        <v>394974</v>
+      </c>
+      <c r="E5">
+        <v>394974</v>
+      </c>
+      <c r="F5">
+        <v>394974</v>
+      </c>
+      <c r="G5">
+        <v>394974</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>283620</v>
+      </c>
+      <c r="D6">
+        <v>245284</v>
+      </c>
+      <c r="E6">
+        <v>258609</v>
+      </c>
+      <c r="F6">
+        <v>262150</v>
+      </c>
+      <c r="G6">
+        <v>271628</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>129264</v>
+      </c>
+      <c r="D7">
+        <v>133197</v>
+      </c>
+      <c r="E7">
+        <v>142640</v>
+      </c>
+      <c r="F7">
+        <v>148580</v>
+      </c>
+      <c r="G7">
+        <v>187029</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>6270696</v>
+      </c>
+      <c r="D24">
+        <v>6270696</v>
+      </c>
+      <c r="E24">
+        <v>6270696</v>
+      </c>
+      <c r="F24">
+        <v>6270696</v>
+      </c>
+      <c r="G24">
+        <v>6270696</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1132782</v>
+      </c>
+      <c r="D25">
+        <v>1304582</v>
+      </c>
+      <c r="E25">
+        <v>1078541</v>
+      </c>
+      <c r="F25">
+        <v>640406</v>
+      </c>
+      <c r="G25">
+        <v>784029</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1599067</v>
+      </c>
+      <c r="D26">
+        <v>807810</v>
+      </c>
+      <c r="E26">
+        <v>757266</v>
+      </c>
+      <c r="F26">
+        <v>723283</v>
+      </c>
+      <c r="G26">
+        <v>811894</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>75796</v>
+      </c>
+      <c r="D43">
+        <v>75796</v>
+      </c>
+      <c r="E43">
+        <v>75796</v>
+      </c>
+      <c r="F43">
+        <v>75796</v>
+      </c>
+      <c r="G43">
+        <v>75796</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>70126</v>
+      </c>
+      <c r="D44">
+        <v>73802</v>
+      </c>
+      <c r="E44">
+        <v>74042</v>
+      </c>
+      <c r="F44">
+        <v>75340</v>
+      </c>
+      <c r="G44">
+        <v>77899</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>54076</v>
+      </c>
+      <c r="D45">
+        <v>36207</v>
+      </c>
+      <c r="E45">
+        <v>39248</v>
+      </c>
+      <c r="F45">
+        <v>49477</v>
+      </c>
+      <c r="G45">
+        <v>60963</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>40</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>3081858</v>
+      </c>
+      <c r="D62">
+        <v>3081858</v>
+      </c>
+      <c r="E62">
+        <v>3081858</v>
+      </c>
+      <c r="F62">
+        <v>3081858</v>
+      </c>
+      <c r="G62">
+        <v>3081858</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>596789</v>
+      </c>
+      <c r="D63">
+        <v>512346</v>
+      </c>
+      <c r="E63">
+        <v>407207</v>
+      </c>
+      <c r="F63">
+        <v>435910</v>
+      </c>
+      <c r="G63">
+        <v>381493</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>1452768</v>
+      </c>
+      <c r="D64">
+        <v>785872</v>
+      </c>
+      <c r="E64">
+        <v>746563</v>
+      </c>
+      <c r="F64">
+        <v>598458</v>
+      </c>
+      <c r="G64">
+        <v>343752</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>40</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>394974</v>
+      </c>
+      <c r="D81">
+        <v>394974</v>
+      </c>
+      <c r="E81">
+        <v>394974</v>
+      </c>
+      <c r="F81">
+        <v>394974</v>
+      </c>
+      <c r="G81">
+        <v>394974</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>283620</v>
+      </c>
+      <c r="D82">
+        <v>245284</v>
+      </c>
+      <c r="E82">
+        <v>258609</v>
+      </c>
+      <c r="F82">
+        <v>262150</v>
+      </c>
+      <c r="G82">
+        <v>271628</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>129264</v>
+      </c>
+      <c r="D83">
+        <v>133197</v>
+      </c>
+      <c r="E83">
+        <v>142640</v>
+      </c>
+      <c r="F83">
+        <v>148580</v>
+      </c>
+      <c r="G83">
+        <v>187029</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>6270696</v>
+      </c>
+      <c r="D84">
+        <v>6270696</v>
+      </c>
+      <c r="E84">
+        <v>6270696</v>
+      </c>
+      <c r="F84">
+        <v>6270696</v>
+      </c>
+      <c r="G84">
+        <v>6270696</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>1132782</v>
+      </c>
+      <c r="D85">
+        <v>1304582</v>
+      </c>
+      <c r="E85">
+        <v>1078541</v>
+      </c>
+      <c r="F85">
+        <v>640406</v>
+      </c>
+      <c r="G85">
+        <v>784029</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>1599067</v>
+      </c>
+      <c r="D86">
+        <v>807810</v>
+      </c>
+      <c r="E86">
+        <v>757266</v>
+      </c>
+      <c r="F86">
+        <v>723283</v>
+      </c>
+      <c r="G86">
+        <v>811894</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <v>40</v>
+      </c>
+      <c r="G99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>75796</v>
+      </c>
+      <c r="D100">
+        <v>75796</v>
+      </c>
+      <c r="E100">
+        <v>75796</v>
+      </c>
+      <c r="F100">
+        <v>75796</v>
+      </c>
+      <c r="G100">
+        <v>75796</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>70126</v>
+      </c>
+      <c r="D101">
+        <v>73802</v>
+      </c>
+      <c r="E101">
+        <v>74042</v>
+      </c>
+      <c r="F101">
+        <v>75340</v>
+      </c>
+      <c r="G101">
+        <v>77899</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>54076</v>
+      </c>
+      <c r="D102">
+        <v>36207</v>
+      </c>
+      <c r="E102">
+        <v>39248</v>
+      </c>
+      <c r="F102">
+        <v>49477</v>
+      </c>
+      <c r="G102">
+        <v>60963</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>3081858</v>
+      </c>
+      <c r="D103">
+        <v>3081858</v>
+      </c>
+      <c r="E103">
+        <v>3081858</v>
+      </c>
+      <c r="F103">
+        <v>3081858</v>
+      </c>
+      <c r="G103">
+        <v>3081858</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>596789</v>
+      </c>
+      <c r="D104">
+        <v>512346</v>
+      </c>
+      <c r="E104">
+        <v>407207</v>
+      </c>
+      <c r="F104">
+        <v>435910</v>
+      </c>
+      <c r="G104">
+        <v>381493</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>1452768</v>
+      </c>
+      <c r="D105">
+        <v>785872</v>
+      </c>
+      <c r="E105">
+        <v>746563</v>
+      </c>
+      <c r="F105">
+        <v>598458</v>
+      </c>
+      <c r="G105">
+        <v>343752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C20"/>
     </sheetView>
   </sheetViews>
@@ -2678,29 +8104,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -2714,7 +8140,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -2728,7 +8154,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -2742,7 +8168,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -2756,7 +8182,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -2770,7 +8196,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -2783,33 +8209,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13">
@@ -2823,7 +8249,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -2837,7 +8263,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -2851,7 +8277,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -2865,37 +8291,37 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20">
@@ -2915,7 +8341,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21">
@@ -2935,7 +8361,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22">
@@ -2955,7 +8381,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23">
@@ -2975,7 +8401,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24">
@@ -2995,7 +8421,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25">
@@ -3023,364 +8449,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>95383</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>258184</v>
-      </c>
-      <c r="D5">
-        <v>258184</v>
-      </c>
-      <c r="E5">
-        <v>258184</v>
-      </c>
-      <c r="F5">
-        <v>258184</v>
-      </c>
-      <c r="G5">
-        <v>258184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>218162</v>
-      </c>
-      <c r="D6">
-        <v>234233</v>
-      </c>
-      <c r="E6">
-        <v>240692</v>
-      </c>
-      <c r="F6">
-        <v>231077</v>
-      </c>
-      <c r="G6">
-        <v>237326</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>100630</v>
-      </c>
-      <c r="D7">
-        <v>104894</v>
-      </c>
-      <c r="E7">
-        <v>113212</v>
-      </c>
-      <c r="F7">
-        <v>134687</v>
-      </c>
-      <c r="G7">
-        <v>133664</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>6260091</v>
-      </c>
-      <c r="D19">
-        <v>6260091</v>
-      </c>
-      <c r="E19">
-        <v>6260091</v>
-      </c>
-      <c r="F19">
-        <v>6260091</v>
-      </c>
-      <c r="G19">
-        <v>6260091</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1132782</v>
-      </c>
-      <c r="D20">
-        <v>1304582</v>
-      </c>
-      <c r="E20">
-        <v>1078541</v>
-      </c>
-      <c r="F20">
-        <v>640406</v>
-      </c>
-      <c r="G20">
-        <v>784029</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>1805296</v>
-      </c>
-      <c r="D21">
-        <v>1387633</v>
-      </c>
-      <c r="E21">
-        <v>909691</v>
-      </c>
-      <c r="F21">
-        <v>811272</v>
-      </c>
-      <c r="G21">
-        <v>722234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>500</v>
-      </c>
-      <c r="C37">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>40</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>12902</v>
-      </c>
-      <c r="D40">
-        <v>12902</v>
-      </c>
-      <c r="E40">
-        <v>12902</v>
-      </c>
-      <c r="F40">
-        <v>12902</v>
-      </c>
-      <c r="G40">
-        <v>12902</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>25724</v>
-      </c>
-      <c r="D41">
-        <v>234233</v>
-      </c>
-      <c r="E41">
-        <v>240692</v>
-      </c>
-      <c r="F41">
-        <v>231077</v>
-      </c>
-      <c r="G41">
-        <v>237326</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>100630</v>
-      </c>
-      <c r="D42">
-        <v>104894</v>
-      </c>
-      <c r="E42">
-        <v>113212</v>
-      </c>
-      <c r="F42">
-        <v>134687</v>
-      </c>
-      <c r="G42">
-        <v>133664</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
-      <c r="E53">
-        <v>30</v>
-      </c>
-      <c r="F53">
-        <v>40</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54">
-        <v>3014847</v>
-      </c>
-      <c r="D54">
-        <v>3014847</v>
-      </c>
-      <c r="E54">
-        <v>3014847</v>
-      </c>
-      <c r="F54">
-        <v>3014847</v>
-      </c>
-      <c r="G54">
-        <v>3014847</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>1132782</v>
-      </c>
-      <c r="D55">
-        <v>1304582</v>
-      </c>
-      <c r="E55">
-        <v>1078541</v>
-      </c>
-      <c r="F55">
-        <v>640406</v>
-      </c>
-      <c r="G55">
-        <v>784029</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>1805296</v>
-      </c>
-      <c r="D56">
-        <v>1387633</v>
-      </c>
-      <c r="E56">
-        <v>909691</v>
-      </c>
-      <c r="F56">
-        <v>811272</v>
-      </c>
-      <c r="G56">
-        <v>722234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pisa\Lectures\Practicals\SPM\GS-directed-acyclic2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pisa\Lectures\Practicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="4" r:id="rId1"/>
-    <sheet name="Old" sheetId="1" r:id="rId2"/>
+    <sheet name="10000 - 100 - 400" sheetId="5" r:id="rId1"/>
+    <sheet name="20000 - 100 - 800" sheetId="6" r:id="rId2"/>
+    <sheet name="30000 - 300 - 800" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
-  <si>
-    <t># of nodes</t>
-  </si>
-  <si>
-    <t># of edges</t>
-  </si>
-  <si>
-    <t># of workers</t>
-  </si>
-  <si>
-    <t>time (usec)</t>
-  </si>
-  <si>
-    <t>delay (ms)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>SEQ</t>
   </si>
@@ -51,44 +37,20 @@
     <t>FF</t>
   </si>
   <si>
-    <t>SEQ-Active-Wait</t>
+    <t>PAR-AW</t>
   </si>
   <si>
-    <t>PAR-Active-Wait</t>
+    <t>FF-AW</t>
   </si>
   <si>
-    <t>FF-Active-Wait</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Best Time - Changed # of nodes</t>
-  </si>
-  <si>
-    <t>Constant NW = 16 - Nodes = 100 - Edges = 1183</t>
-  </si>
-  <si>
-    <t>Best Time - Nodes = 100 - Edges = 1183</t>
-  </si>
-  <si>
-    <t># of Nodes = 1000</t>
-  </si>
-  <si>
-    <t># of Nodes = 500</t>
-  </si>
-  <si>
-    <t># of nodes = 1000</t>
-  </si>
-  <si>
-    <t># of nodes = 500</t>
+    <t>SEQ-AW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,46 +58,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,19 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,8 +133,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1000 Nodes - Without Active Wait</a:t>
+              <a:t>Without ActiveWait 10000 Nodes - Min</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> = 100, Max = 400</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -261,11 +184,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$5</c:f>
+              <c:f>'10000 - 100 - 400'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ</c:v>
+                  <c:v>PAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -280,64 +203,70 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$4:$G$4</c:f>
+              <c:f>'10000 - 100 - 400'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$5:$G$5</c:f>
+              <c:f>'10000 - 100 - 400'!$D$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>394974</c:v>
+                  <c:v>278562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394974</c:v>
+                  <c:v>237352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>394974</c:v>
+                  <c:v>240150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>394974</c:v>
+                  <c:v>261672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>394974</c:v>
+                  <c:v>269537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>292465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,11 +278,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$6</c:f>
+              <c:f>'10000 - 100 - 400'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -368,64 +297,70 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$4:$G$4</c:f>
+              <c:f>'10000 - 100 - 400'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$6:$G$6</c:f>
+              <c:f>'10000 - 100 - 400'!$D$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>283620</c:v>
+                  <c:v>262252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245284</c:v>
+                  <c:v>234362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258609</c:v>
+                  <c:v>226997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262150</c:v>
+                  <c:v>225513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271628</c:v>
+                  <c:v>249469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,11 +372,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$7</c:f>
+              <c:f>'10000 - 100 - 400'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>SEQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -456,64 +391,70 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$4:$G$4</c:f>
+              <c:f>'10000 - 100 - 400'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$7:$G$7</c:f>
+              <c:f>'10000 - 100 - 400'!$D$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>129264</c:v>
+                  <c:v>115692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133197</c:v>
+                  <c:v>115692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142640</c:v>
+                  <c:v>115692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148580</c:v>
+                  <c:v>115692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187029</c:v>
+                  <c:v>115692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,13 +469,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="298964352"/>
-        <c:axId val="298954560"/>
+        <c:axId val="-605467600"/>
+        <c:axId val="-605469776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298964352"/>
+        <c:axId val="-605467600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298954560"/>
+        <c:crossAx val="-605469776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298954560"/>
+        <c:axId val="-605469776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298964352"/>
+        <c:crossAx val="-605467600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,20 +691,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>1000</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>ActiveWait 10000 Nodes</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Nodes - With Active Wait</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Min = 100, Max = 400</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -809,11 +743,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$24</c:f>
+              <c:f>'10000 - 100 - 400'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ-Active-Wait</c:v>
+                  <c:v>PAR-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -832,48 +766,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$23:$G$23</c:f>
+              <c:f>'10000 - 100 - 400'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$24:$G$24</c:f>
+              <c:f>'10000 - 100 - 400'!$D$23:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6270696</c:v>
+                  <c:v>2761793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6270696</c:v>
+                  <c:v>1456903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6270696</c:v>
+                  <c:v>833017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6270696</c:v>
+                  <c:v>552355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6270696</c:v>
+                  <c:v>454714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>413137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>463330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,11 +837,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$25</c:f>
+              <c:f>'10000 - 100 - 400'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR-Active-Wait</c:v>
+                  <c:v>FF-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,48 +860,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$23:$G$23</c:f>
+              <c:f>'10000 - 100 - 400'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$25:$G$25</c:f>
+              <c:f>'10000 - 100 - 400'!$D$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1132782</c:v>
+                  <c:v>3177264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1304582</c:v>
+                  <c:v>1633108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1078541</c:v>
+                  <c:v>1294930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640406</c:v>
+                  <c:v>796354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>784029</c:v>
+                  <c:v>509794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>462445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>432139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>471281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,11 +931,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$26</c:f>
+              <c:f>'10000 - 100 - 400'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF-Active-Wait</c:v>
+                  <c:v>SEQ-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,48 +954,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$23:$G$23</c:f>
+              <c:f>'10000 - 100 - 400'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$26:$G$26</c:f>
+              <c:f>'10000 - 100 - 400'!$D$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1599067</c:v>
+                  <c:v>5132648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>807810</c:v>
+                  <c:v>5132648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757266</c:v>
+                  <c:v>5132648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>723283</c:v>
+                  <c:v>5132648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>811894</c:v>
+                  <c:v>5132648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5132648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5132648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5132648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,11 +1029,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298967616"/>
-        <c:axId val="298954016"/>
+        <c:axId val="-605473040"/>
+        <c:axId val="-605472496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298967616"/>
+        <c:axId val="-605473040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298954016"/>
+        <c:crossAx val="-605472496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298954016"/>
+        <c:axId val="-605472496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298967616"/>
+        <c:crossAx val="-605473040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,7 +1251,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>500 Nodes - With Active Wait</a:t>
+              <a:t>Without ActiveWait 20000 Nodes - Min = 100, Max = 800</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1309,11 +1297,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$62</c:f>
+              <c:f>'20000 - 100 - 800'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ-Active-Wait</c:v>
+                  <c:v>PAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,48 +1320,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:f>'20000 - 100 - 800'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$62:$G$62</c:f>
+              <c:f>'20000 - 100 - 800'!$D$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3081858</c:v>
+                  <c:v>825602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081858</c:v>
+                  <c:v>634203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081858</c:v>
+                  <c:v>672807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081858</c:v>
+                  <c:v>776471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081858</c:v>
+                  <c:v>823936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>878667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>926159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,11 +1391,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$63</c:f>
+              <c:f>'20000 - 100 - 800'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR-Active-Wait</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1408,48 +1414,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:f>'20000 - 100 - 800'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$63:$G$63</c:f>
+              <c:f>'20000 - 100 - 800'!$D$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>596789</c:v>
+                  <c:v>766815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512346</c:v>
+                  <c:v>685861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>407207</c:v>
+                  <c:v>649343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>435910</c:v>
+                  <c:v>640546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>381493</c:v>
+                  <c:v>665893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>766148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>874839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,11 +1485,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$64</c:f>
+              <c:f>'20000 - 100 - 800'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF-Active-Wait</c:v>
+                  <c:v>SEQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1484,48 +1508,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$61:$G$61</c:f>
+              <c:f>'20000 - 100 - 800'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$64:$G$64</c:f>
+              <c:f>'20000 - 100 - 800'!$D$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1452768</c:v>
+                  <c:v>365868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>785872</c:v>
+                  <c:v>365868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>746563</c:v>
+                  <c:v>365868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>598458</c:v>
+                  <c:v>365868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343752</c:v>
+                  <c:v>365868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,11 +1583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298962720"/>
-        <c:axId val="298960000"/>
+        <c:axId val="-607438928"/>
+        <c:axId val="-607450352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298962720"/>
+        <c:axId val="-607438928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298960000"/>
+        <c:crossAx val="-607450352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1596,7 +1638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298960000"/>
+        <c:axId val="-607450352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298962720"/>
+        <c:crossAx val="-607438928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,8 +1805,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>500 Nodes - Without Active Wait</a:t>
+              <a:t>ActiveWait 20000</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Nodes - Min = 100, Max = 800</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1809,11 +1856,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$43</c:f>
+              <c:f>'20000 - 100 - 800'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ</c:v>
+                  <c:v>PAR-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1832,48 +1879,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:f>'20000 - 100 - 800'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$43:$G$43</c:f>
+              <c:f>'20000 - 100 - 800'!$D$23:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75796</c:v>
+                  <c:v>5830020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75796</c:v>
+                  <c:v>3106737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75796</c:v>
+                  <c:v>1888392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75796</c:v>
+                  <c:v>1393808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75796</c:v>
+                  <c:v>1085643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1008399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1082850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1164577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,11 +1950,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$44</c:f>
+              <c:f>'20000 - 100 - 800'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR</c:v>
+                  <c:v>FF-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1908,48 +1973,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:f>'20000 - 100 - 800'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$44:$G$44</c:f>
+              <c:f>'20000 - 100 - 800'!$D$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70126</c:v>
+                  <c:v>7000505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73802</c:v>
+                  <c:v>4016039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74042</c:v>
+                  <c:v>2527240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75340</c:v>
+                  <c:v>1840795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77899</c:v>
+                  <c:v>1343699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1102331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1087539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1062140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,11 +2044,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$45</c:f>
+              <c:f>'20000 - 100 - 800'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>SEQ-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1984,48 +2067,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$42:$G$42</c:f>
+              <c:f>'20000 - 100 - 800'!$D$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$45:$G$45</c:f>
+              <c:f>'20000 - 100 - 800'!$D$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>54076</c:v>
+                  <c:v>10402976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36207</c:v>
+                  <c:v>10402976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39248</c:v>
+                  <c:v>10402976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49477</c:v>
+                  <c:v>10402976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60963</c:v>
+                  <c:v>10402976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10402976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10402976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10402976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,11 +2142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298956736"/>
-        <c:axId val="298969248"/>
+        <c:axId val="-605473584"/>
+        <c:axId val="-605468688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298956736"/>
+        <c:axId val="-605473584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298969248"/>
+        <c:crossAx val="-605468688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2096,7 +2197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298969248"/>
+        <c:axId val="-605468688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298956736"/>
+        <c:crossAx val="-605473584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,8 +2364,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1000 Nodes - Combined</a:t>
+              <a:t>Without ActiveWait</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 30000 Nodes - Min = 300, Max = 800</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2309,11 +2415,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$81</c:f>
+              <c:f>'30000 - 300 - 800'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ</c:v>
+                  <c:v>PAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2332,48 +2438,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:f>'30000 - 300 - 800'!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$81:$G$81</c:f>
+              <c:f>'30000 - 300 - 800'!$C$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>394974</c:v>
+                  <c:v>1498339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394974</c:v>
+                  <c:v>1172976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>394974</c:v>
+                  <c:v>1207775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>394974</c:v>
+                  <c:v>1373404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>394974</c:v>
+                  <c:v>1493433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1688539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1699173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1790805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,11 +2509,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$82</c:f>
+              <c:f>'30000 - 300 - 800'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2408,48 +2532,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:f>'30000 - 300 - 800'!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$82:$G$82</c:f>
+              <c:f>'30000 - 300 - 800'!$C$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>283620</c:v>
+                  <c:v>1455445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245284</c:v>
+                  <c:v>1247954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258609</c:v>
+                  <c:v>1171959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262150</c:v>
+                  <c:v>1170535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271628</c:v>
+                  <c:v>1219625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2693830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3348022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,11 +2603,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$83</c:f>
+              <c:f>'30000 - 300 - 800'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>SEQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2484,276 +2626,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
+              <c:f>'30000 - 300 - 800'!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$83:$G$83</c:f>
+              <c:f>'30000 - 300 - 800'!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>129264</c:v>
+                  <c:v>742436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133197</c:v>
+                  <c:v>742436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142640</c:v>
+                  <c:v>742436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148580</c:v>
+                  <c:v>742436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SEQ-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$84:$G$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6270696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6270696</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6270696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6270696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6270696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PAR-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$85:$G$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1132782</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1304582</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1078541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>640406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>784029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$86</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FF-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$80:$G$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$86:$G$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1599067</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>807810</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>757266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>723283</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>811894</c:v>
+                  <c:v>742436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>742436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>742436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,11 +2701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298966528"/>
-        <c:axId val="298967072"/>
+        <c:axId val="-595284912"/>
+        <c:axId val="-595293072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298966528"/>
+        <c:axId val="-595284912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298967072"/>
+        <c:crossAx val="-595293072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +2756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298967072"/>
+        <c:axId val="-595293072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298966528"/>
+        <c:crossAx val="-595284912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2991,7 +2923,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>500 Nodes - Combined</a:t>
+              <a:t>ActiveWait 30000 Nodes - Min = 300, Max = 800</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3037,11 +2969,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$100</c:f>
+              <c:f>'30000 - 300 - 800'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SEQ</c:v>
+                  <c:v>PAR-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3060,48 +2992,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:f>'30000 - 300 - 800'!$C$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$100:$G$100</c:f>
+              <c:f>'30000 - 300 - 800'!$C$23:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75796</c:v>
+                  <c:v>9014238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75796</c:v>
+                  <c:v>4911418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75796</c:v>
+                  <c:v>3130212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75796</c:v>
+                  <c:v>2246575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75796</c:v>
+                  <c:v>1883915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1869007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1876945</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,11 +3063,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$101</c:f>
+              <c:f>'30000 - 300 - 800'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAR</c:v>
+                  <c:v>FF-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3136,48 +3086,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:f>'30000 - 300 - 800'!$C$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$101:$G$101</c:f>
+              <c:f>'30000 - 300 - 800'!$C$24:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70126</c:v>
+                  <c:v>9058472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73802</c:v>
+                  <c:v>5666429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74042</c:v>
+                  <c:v>4069656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75340</c:v>
+                  <c:v>3538941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77899</c:v>
+                  <c:v>2048984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2542009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2731774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2885111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,11 +3157,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stats!$B$102</c:f>
+              <c:f>'30000 - 300 - 800'!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>SEQ-AW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3212,276 +3180,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
+              <c:f>'30000 - 300 - 800'!$C$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$102:$G$102</c:f>
+              <c:f>'30000 - 300 - 800'!$C$25:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>54076</c:v>
+                  <c:v>15798826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36207</c:v>
+                  <c:v>15798826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39248</c:v>
+                  <c:v>15798826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49477</c:v>
+                  <c:v>15798826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60963</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$103</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SEQ-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$103:$G$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3081858</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3081858</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3081858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3081858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3081858</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$104</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PAR-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$104:$G$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>596789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>407207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>435910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>381493</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$B$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FF-Active-Wait</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$C$99:$G$99</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$C$105:$G$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1452768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>785872</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>746563</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>598458</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>343752</c:v>
+                  <c:v>15798826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15798826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15798826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15798826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,11 +3255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298955648"/>
-        <c:axId val="298956192"/>
+        <c:axId val="-595279472"/>
+        <c:axId val="-595281648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298955648"/>
+        <c:axId val="-595279472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298956192"/>
+        <c:crossAx val="-595281648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3552,7 +3310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298956192"/>
+        <c:axId val="-595281648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298955648"/>
+        <c:crossAx val="-595279472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,38 +3373,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3925,7 +3651,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4033,6 +3759,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4043,6 +3774,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4074,6 +3810,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7011,16 +6750,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7041,20 +6780,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7069,22 +6808,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7093,7 +6837,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7101,20 +6845,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7123,28 +6867,33 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7153,7 +6902,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7161,20 +6910,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7183,7 +6932,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7455,628 +7204,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G105"/>
+  <dimension ref="C4:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>278562</v>
+      </c>
+      <c r="E5">
+        <v>237352</v>
+      </c>
+      <c r="F5">
+        <v>240150</v>
+      </c>
+      <c r="G5">
+        <v>261672</v>
+      </c>
+      <c r="H5">
+        <v>269537</v>
+      </c>
+      <c r="I5">
+        <v>290194</v>
+      </c>
+      <c r="J5">
+        <v>292465</v>
+      </c>
+      <c r="K5">
+        <v>303108</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>262252</v>
+      </c>
+      <c r="E6">
+        <v>234362</v>
+      </c>
+      <c r="F6">
+        <v>226997</v>
+      </c>
+      <c r="G6">
+        <v>225513</v>
+      </c>
+      <c r="H6">
+        <v>249469</v>
+      </c>
+      <c r="I6">
+        <v>299900</v>
+      </c>
+      <c r="J6">
+        <v>320911</v>
+      </c>
+      <c r="K6">
+        <v>356226</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>115692</v>
+      </c>
+      <c r="E7">
+        <v>115692</v>
+      </c>
+      <c r="F7">
+        <v>115692</v>
+      </c>
+      <c r="G7">
+        <v>115692</v>
+      </c>
+      <c r="H7">
+        <v>115692</v>
+      </c>
+      <c r="I7">
+        <v>115692</v>
+      </c>
+      <c r="J7">
+        <v>115692</v>
+      </c>
+      <c r="K7">
+        <v>115692</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2761793</v>
+      </c>
+      <c r="E23">
+        <v>1456903</v>
+      </c>
+      <c r="F23">
+        <v>833017</v>
+      </c>
+      <c r="G23">
+        <v>552355</v>
+      </c>
+      <c r="H23">
+        <v>454714</v>
+      </c>
+      <c r="I23">
+        <v>413137</v>
+      </c>
+      <c r="J23">
+        <v>463503</v>
+      </c>
+      <c r="K23">
+        <v>463330</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3177264</v>
+      </c>
+      <c r="E24">
+        <v>1633108</v>
+      </c>
+      <c r="F24">
+        <v>1294930</v>
+      </c>
+      <c r="G24">
+        <v>796354</v>
+      </c>
+      <c r="H24">
+        <v>509794</v>
+      </c>
+      <c r="I24">
+        <v>462445</v>
+      </c>
+      <c r="J24">
+        <v>432139</v>
+      </c>
+      <c r="K24">
+        <v>471281</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>394974</v>
-      </c>
-      <c r="D5">
-        <v>394974</v>
-      </c>
-      <c r="E5">
-        <v>394974</v>
-      </c>
-      <c r="F5">
-        <v>394974</v>
-      </c>
-      <c r="G5">
-        <v>394974</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>283620</v>
-      </c>
-      <c r="D6">
-        <v>245284</v>
-      </c>
-      <c r="E6">
-        <v>258609</v>
-      </c>
-      <c r="F6">
-        <v>262150</v>
-      </c>
-      <c r="G6">
-        <v>271628</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>129264</v>
-      </c>
-      <c r="D7">
-        <v>133197</v>
-      </c>
-      <c r="E7">
-        <v>142640</v>
-      </c>
-      <c r="F7">
-        <v>148580</v>
-      </c>
-      <c r="G7">
-        <v>187029</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <v>40</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>6270696</v>
-      </c>
-      <c r="D24">
-        <v>6270696</v>
-      </c>
-      <c r="E24">
-        <v>6270696</v>
-      </c>
-      <c r="F24">
-        <v>6270696</v>
-      </c>
-      <c r="G24">
-        <v>6270696</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>1132782</v>
-      </c>
       <c r="D25">
-        <v>1304582</v>
+        <v>5132648</v>
       </c>
       <c r="E25">
-        <v>1078541</v>
+        <v>5132648</v>
       </c>
       <c r="F25">
-        <v>640406</v>
+        <v>5132648</v>
       </c>
       <c r="G25">
-        <v>784029</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>1599067</v>
-      </c>
-      <c r="D26">
-        <v>807810</v>
-      </c>
-      <c r="E26">
-        <v>757266</v>
-      </c>
-      <c r="F26">
-        <v>723283</v>
-      </c>
-      <c r="G26">
-        <v>811894</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>75796</v>
-      </c>
-      <c r="D43">
-        <v>75796</v>
-      </c>
-      <c r="E43">
-        <v>75796</v>
-      </c>
-      <c r="F43">
-        <v>75796</v>
-      </c>
-      <c r="G43">
-        <v>75796</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>70126</v>
-      </c>
-      <c r="D44">
-        <v>73802</v>
-      </c>
-      <c r="E44">
-        <v>74042</v>
-      </c>
-      <c r="F44">
-        <v>75340</v>
-      </c>
-      <c r="G44">
-        <v>77899</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>54076</v>
-      </c>
-      <c r="D45">
-        <v>36207</v>
-      </c>
-      <c r="E45">
-        <v>39248</v>
-      </c>
-      <c r="F45">
-        <v>49477</v>
-      </c>
-      <c r="G45">
-        <v>60963</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>20</v>
-      </c>
-      <c r="E61">
-        <v>30</v>
-      </c>
-      <c r="F61">
-        <v>40</v>
-      </c>
-      <c r="G61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>3081858</v>
-      </c>
-      <c r="D62">
-        <v>3081858</v>
-      </c>
-      <c r="E62">
-        <v>3081858</v>
-      </c>
-      <c r="F62">
-        <v>3081858</v>
-      </c>
-      <c r="G62">
-        <v>3081858</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>596789</v>
-      </c>
-      <c r="D63">
-        <v>512346</v>
-      </c>
-      <c r="E63">
-        <v>407207</v>
-      </c>
-      <c r="F63">
-        <v>435910</v>
-      </c>
-      <c r="G63">
-        <v>381493</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64">
-        <v>1452768</v>
-      </c>
-      <c r="D64">
-        <v>785872</v>
-      </c>
-      <c r="E64">
-        <v>746563</v>
-      </c>
-      <c r="F64">
-        <v>598458</v>
-      </c>
-      <c r="G64">
-        <v>343752</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>20</v>
-      </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="F80">
-        <v>40</v>
-      </c>
-      <c r="G80">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81">
-        <v>394974</v>
-      </c>
-      <c r="D81">
-        <v>394974</v>
-      </c>
-      <c r="E81">
-        <v>394974</v>
-      </c>
-      <c r="F81">
-        <v>394974</v>
-      </c>
-      <c r="G81">
-        <v>394974</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>283620</v>
-      </c>
-      <c r="D82">
-        <v>245284</v>
-      </c>
-      <c r="E82">
-        <v>258609</v>
-      </c>
-      <c r="F82">
-        <v>262150</v>
-      </c>
-      <c r="G82">
-        <v>271628</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83">
-        <v>129264</v>
-      </c>
-      <c r="D83">
-        <v>133197</v>
-      </c>
-      <c r="E83">
-        <v>142640</v>
-      </c>
-      <c r="F83">
-        <v>148580</v>
-      </c>
-      <c r="G83">
-        <v>187029</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <v>6270696</v>
-      </c>
-      <c r="D84">
-        <v>6270696</v>
-      </c>
-      <c r="E84">
-        <v>6270696</v>
-      </c>
-      <c r="F84">
-        <v>6270696</v>
-      </c>
-      <c r="G84">
-        <v>6270696</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85">
-        <v>1132782</v>
-      </c>
-      <c r="D85">
-        <v>1304582</v>
-      </c>
-      <c r="E85">
-        <v>1078541</v>
-      </c>
-      <c r="F85">
-        <v>640406</v>
-      </c>
-      <c r="G85">
-        <v>784029</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <v>1599067</v>
-      </c>
-      <c r="D86">
-        <v>807810</v>
-      </c>
-      <c r="E86">
-        <v>757266</v>
-      </c>
-      <c r="F86">
-        <v>723283</v>
-      </c>
-      <c r="G86">
-        <v>811894</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C99">
-        <v>10</v>
-      </c>
-      <c r="D99">
-        <v>20</v>
-      </c>
-      <c r="E99">
-        <v>30</v>
-      </c>
-      <c r="F99">
-        <v>40</v>
-      </c>
-      <c r="G99">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>75796</v>
-      </c>
-      <c r="D100">
-        <v>75796</v>
-      </c>
-      <c r="E100">
-        <v>75796</v>
-      </c>
-      <c r="F100">
-        <v>75796</v>
-      </c>
-      <c r="G100">
-        <v>75796</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>70126</v>
-      </c>
-      <c r="D101">
-        <v>73802</v>
-      </c>
-      <c r="E101">
-        <v>74042</v>
-      </c>
-      <c r="F101">
-        <v>75340</v>
-      </c>
-      <c r="G101">
-        <v>77899</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>54076</v>
-      </c>
-      <c r="D102">
-        <v>36207</v>
-      </c>
-      <c r="E102">
-        <v>39248</v>
-      </c>
-      <c r="F102">
-        <v>49477</v>
-      </c>
-      <c r="G102">
-        <v>60963</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103">
-        <v>3081858</v>
-      </c>
-      <c r="D103">
-        <v>3081858</v>
-      </c>
-      <c r="E103">
-        <v>3081858</v>
-      </c>
-      <c r="F103">
-        <v>3081858</v>
-      </c>
-      <c r="G103">
-        <v>3081858</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
-        <v>596789</v>
-      </c>
-      <c r="D104">
-        <v>512346</v>
-      </c>
-      <c r="E104">
-        <v>407207</v>
-      </c>
-      <c r="F104">
-        <v>435910</v>
-      </c>
-      <c r="G104">
-        <v>381493</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>1452768</v>
-      </c>
-      <c r="D105">
-        <v>785872</v>
-      </c>
-      <c r="E105">
-        <v>746563</v>
-      </c>
-      <c r="F105">
-        <v>598458</v>
-      </c>
-      <c r="G105">
-        <v>343752</v>
+        <v>5132648</v>
+      </c>
+      <c r="H25">
+        <v>5132648</v>
+      </c>
+      <c r="I25">
+        <v>5132648</v>
+      </c>
+      <c r="J25">
+        <v>5132648</v>
+      </c>
+      <c r="K25">
+        <v>5132648</v>
       </c>
     </row>
   </sheetData>
@@ -8087,366 +7449,492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F25"/>
+  <dimension ref="C4:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>256</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>825602</v>
+      </c>
+      <c r="E5">
+        <v>634203</v>
+      </c>
+      <c r="F5">
+        <v>672807</v>
+      </c>
+      <c r="G5">
+        <v>776471</v>
+      </c>
+      <c r="H5">
+        <v>823936</v>
+      </c>
+      <c r="I5">
+        <v>878667</v>
+      </c>
+      <c r="J5">
+        <v>896405</v>
+      </c>
+      <c r="K5">
+        <v>926159</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6">
+        <v>766815</v>
+      </c>
+      <c r="E6">
+        <v>685861</v>
+      </c>
+      <c r="F6">
+        <v>649343</v>
+      </c>
+      <c r="G6">
+        <v>640546</v>
+      </c>
+      <c r="H6">
+        <v>665893</v>
+      </c>
+      <c r="I6">
+        <v>735697</v>
+      </c>
+      <c r="J6">
+        <v>766148</v>
+      </c>
+      <c r="K6">
+        <v>874839</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>365868</v>
+      </c>
+      <c r="E7">
+        <v>365868</v>
+      </c>
+      <c r="F7">
+        <v>365868</v>
+      </c>
+      <c r="G7">
+        <v>365868</v>
+      </c>
+      <c r="H7">
+        <v>365868</v>
+      </c>
+      <c r="I7">
+        <v>365868</v>
+      </c>
+      <c r="J7">
+        <v>365868</v>
+      </c>
+      <c r="K7">
+        <v>365868</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D23">
+        <v>5830020</v>
+      </c>
+      <c r="E23">
+        <v>3106737</v>
+      </c>
+      <c r="F23">
+        <v>1888392</v>
+      </c>
+      <c r="G23">
+        <v>1393808</v>
+      </c>
+      <c r="H23">
+        <v>1085643</v>
+      </c>
+      <c r="I23">
+        <v>1008399</v>
+      </c>
+      <c r="J23">
+        <v>1082850</v>
+      </c>
+      <c r="K23">
+        <v>1164577</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="D24">
+        <v>7000505</v>
+      </c>
+      <c r="E24">
+        <v>4016039</v>
+      </c>
+      <c r="F24">
+        <v>2527240</v>
+      </c>
+      <c r="G24">
+        <v>1840795</v>
+      </c>
+      <c r="H24">
+        <v>1343699</v>
+      </c>
+      <c r="I24">
+        <v>1102331</v>
+      </c>
+      <c r="J24">
+        <v>1087539</v>
+      </c>
+      <c r="K24">
+        <v>1062140</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4672</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>5978</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4416</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>604930</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>155518</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>183401</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>11668</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>20841</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>155518</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>184245</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>95383</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>257970</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>95383</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>209748</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22">
-        <v>95383</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>96247</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23">
-        <v>95383</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>6260371</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>95383</v>
-      </c>
-      <c r="D24">
-        <v>32</v>
-      </c>
-      <c r="E24">
-        <v>674062</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
-      <c r="C25">
-        <v>95383</v>
-      </c>
       <c r="D25">
-        <v>32</v>
+        <v>10402976</v>
       </c>
       <c r="E25">
-        <v>682256</v>
+        <v>10402976</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>10402976</v>
+      </c>
+      <c r="G25">
+        <v>10402976</v>
+      </c>
+      <c r="H25">
+        <v>10402976</v>
+      </c>
+      <c r="I25">
+        <v>10402976</v>
+      </c>
+      <c r="J25">
+        <v>10402976</v>
+      </c>
+      <c r="K25">
+        <v>10402976</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>128</v>
+      </c>
+      <c r="J4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1498339</v>
+      </c>
+      <c r="D5">
+        <v>1172976</v>
+      </c>
+      <c r="E5">
+        <v>1207775</v>
+      </c>
+      <c r="F5">
+        <v>1373404</v>
+      </c>
+      <c r="G5">
+        <v>1493433</v>
+      </c>
+      <c r="H5">
+        <v>1688539</v>
+      </c>
+      <c r="I5">
+        <v>1699173</v>
+      </c>
+      <c r="J5">
+        <v>1790805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1455445</v>
+      </c>
+      <c r="D6">
+        <v>1247954</v>
+      </c>
+      <c r="E6">
+        <v>1171959</v>
+      </c>
+      <c r="F6">
+        <v>1170535</v>
+      </c>
+      <c r="G6">
+        <v>1219625</v>
+      </c>
+      <c r="H6">
+        <v>1679845</v>
+      </c>
+      <c r="I6">
+        <v>2693830</v>
+      </c>
+      <c r="J6">
+        <v>3348022</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>742436</v>
+      </c>
+      <c r="D7">
+        <v>742436</v>
+      </c>
+      <c r="E7">
+        <v>742436</v>
+      </c>
+      <c r="F7">
+        <v>742436</v>
+      </c>
+      <c r="G7">
+        <v>742436</v>
+      </c>
+      <c r="H7">
+        <v>742436</v>
+      </c>
+      <c r="I7">
+        <v>742436</v>
+      </c>
+      <c r="J7">
+        <v>742436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>64</v>
+      </c>
+      <c r="I22">
+        <v>128</v>
+      </c>
+      <c r="J22">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9014238</v>
+      </c>
+      <c r="D23">
+        <v>4911418</v>
+      </c>
+      <c r="E23">
+        <v>3130212</v>
+      </c>
+      <c r="F23">
+        <v>2246575</v>
+      </c>
+      <c r="G23">
+        <v>1883915</v>
+      </c>
+      <c r="H23">
+        <v>1869007</v>
+      </c>
+      <c r="I23">
+        <v>1876945</v>
+      </c>
+      <c r="J23">
+        <v>2054513</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>9058472</v>
+      </c>
+      <c r="D24">
+        <v>5666429</v>
+      </c>
+      <c r="E24">
+        <v>4069656</v>
+      </c>
+      <c r="F24">
+        <v>3538941</v>
+      </c>
+      <c r="G24">
+        <v>2048984</v>
+      </c>
+      <c r="H24">
+        <v>2542009</v>
+      </c>
+      <c r="I24">
+        <v>2731774</v>
+      </c>
+      <c r="J24">
+        <v>2885111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>15798826</v>
+      </c>
+      <c r="D25">
+        <v>15798826</v>
+      </c>
+      <c r="E25">
+        <v>15798826</v>
+      </c>
+      <c r="F25">
+        <v>15798826</v>
+      </c>
+      <c r="G25">
+        <v>15798826</v>
+      </c>
+      <c r="H25">
+        <v>15798826</v>
+      </c>
+      <c r="I25">
+        <v>15798826</v>
+      </c>
+      <c r="J25">
+        <v>15798826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>